--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_wwMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_wwMeHg Model Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32F296-0186-4A98-B863-BCF0D38D9639}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E748D-F44E-4BD3-BC4D-1C25B2907AAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wwMeHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet_30ct_cen" sheetId="5" r:id="rId2"/>
-    <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
+    <sheet name="Combined_cen" sheetId="9" r:id="rId2"/>
+    <sheet name="Outlet_30ct_cen" sheetId="5" r:id="rId3"/>
+    <sheet name="Rumsey" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="445">
   <si>
     <t>Model #</t>
   </si>
@@ -237,33 +238,6 @@
     <t>In loadReg(wwMeHg ~ model(9), data = wwMeHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
   </si>
   <si>
-    <t>In loadReg(wwMeHg ~ model(1), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(2), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(3), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(4), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(5), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(6), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(7), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(8), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(9), data = wwMeHg_Outflow, flow = "Flow",  :</t>
-  </si>
-  <si>
     <t>&gt; wwMeHg_Outflowm1 &lt;- loadReg(cen_data ~model(1), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Outflow")</t>
   </si>
   <si>
@@ -916,6 +890,522 @@
   </si>
   <si>
     <t>13.4, 18.3, 19.8</t>
+  </si>
+  <si>
+    <t>Combined Outflow wwMeHg</t>
+  </si>
+  <si>
+    <t>Number of Observations: 36; Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm1 &lt;- loadReg(cen_data ~model(1), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm1</t>
+  </si>
+  <si>
+    <t>Station: CCSB-Combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 36</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0238</t>
+  </si>
+  <si>
+    <t>(Intercept)   -6.822     0.1067  -63.94       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.181     0.0633   18.66       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4015</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 88.86 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 79.02 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4267</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2503</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.02 0.03</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.01 0.02 0.03 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.291 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8135</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm2 &lt;- loadReg(cen_data ~model(2), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.836476    0.17150 -39.8621  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.180532    0.06414  18.4064  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.005463    0.04689   0.1165  0.9184</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4126</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 88.87 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 79.03 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4359</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.703 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8165</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm3 &lt;- loadReg(cen_data ~model(3), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.81811    0.11261 -60.5472  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.18049    0.06477  18.2263  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      0.02188    0.18717   0.1169  0.9049</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4083</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2472</t>
+  </si>
+  <si>
+    <t>lnQ     1.017</t>
+  </si>
+  <si>
+    <t>DECTIME 1.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.63 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8159</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm4 &lt;- loadReg(cen_data ~model(4), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.8713    0.65920  -8.907  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2205    0.07063  17.279  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.9292    0.57799  -1.608  0.0943</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6824    0.55950  -1.220  0.2022</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3963</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 89.73 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 81.94 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5251</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.234</t>
+  </si>
+  <si>
+    <t>lnQ         1.237</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.973</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.201</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.03 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.1255 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8777</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm5 &lt;- loadReg(cen_data ~model(5), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error   z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.830732    0.19210 -35.55770  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.179826    0.06566  17.96847  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.004342    0.05055   0.08589  0.9499</t>
+  </si>
+  <si>
+    <t>DECTIME      0.014783    0.20132   0.07343  0.9299</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4252</t>
+  </si>
+  <si>
+    <t>G-squared: 79.04 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4208</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2453</t>
+  </si>
+  <si>
+    <t>lnQ     1.019</t>
+  </si>
+  <si>
+    <t>lnQ2    1.118</t>
+  </si>
+  <si>
+    <t>DECTIME 1.137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.247 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8177</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm6 &lt;- loadReg(cen_data ~model(6), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm6</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.7965    0.70287 -8.2469  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2210    0.07197 16.9647  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         -0.0182    0.05158 -0.3529  0.6881</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.9719    0.60008 -1.6196  0.0853</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6799    0.56837 -1.1961  0.2004</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4073</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 89.78 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.1 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4644</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2266</t>
+  </si>
+  <si>
+    <t>lnQ         1.238</t>
+  </si>
+  <si>
+    <t>lnQ2        1.199</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.126</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.255 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8714</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm7 &lt;- loadReg(cen_data ~model(7), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.6922    0.73460 -7.7488  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2342    0.07568 16.3090  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1235    0.21011 -0.5876  0.5173</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -1.0956    0.65258 -1.6789  0.0741</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.8502    0.63556 -1.3377  0.1526</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4023</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 89.85 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.36 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3913</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.247</t>
+  </si>
+  <si>
+    <t>lnQ         1.402</t>
+  </si>
+  <si>
+    <t>DECTIME     1.308</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.985</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.348 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.878</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm8 &lt;- loadReg(cen_data ~model(8), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.684512    0.75317 -7.5475  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.232500    0.07751 15.9013  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.006299    0.05607 -0.1123  0.8795</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.113280    0.23054 -0.4914  0.5960</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.093876    0.66312 -1.6496  0.0736</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.831630    0.65868 -1.2626  0.1685</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4149</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 89.86 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.38 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3704</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2426</t>
+  </si>
+  <si>
+    <t>lnQ         1.434</t>
+  </si>
+  <si>
+    <t>lnQ2        1.395</t>
+  </si>
+  <si>
+    <t>DECTIME     1.521</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.986</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.018 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.876</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm9 &lt;- loadReg(cen_data ~model(9), data = cen_frame, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Combined")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.456974    0.81326 -6.7100  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.288073    0.10601 12.1501  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.005782    0.05664 -0.1021  0.8893</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.174998    0.24464 -0.7153  0.4369</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.299838    0.38777  0.7732  0.3958</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.475876    0.82734 -1.7839  0.0520</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.053887    0.72205 -1.4596  0.1091</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4232</t>
+  </si>
+  <si>
+    <t>Generalized R-squared: 90.06 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.11 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4588</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2516</t>
+  </si>
+  <si>
+    <t>lnQ         2.664</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.439</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.646</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.1 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8859</t>
+  </si>
+  <si>
+    <t>11.78, 15.10, 19.44</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,6 +1817,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,11 +1859,134 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1904,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,24 +2552,24 @@
       <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
       <c r="O1" s="14"/>
       <c r="R1" s="14"/>
     </row>
@@ -2082,39 +2704,39 @@
       <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="52" t="s">
+      <c r="B7" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="55"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2217,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="50" t="s">
         <v>9</v>
@@ -2229,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>11</v>
@@ -2285,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>11</v>
@@ -2341,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>11</v>
@@ -2396,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>11</v>
@@ -2452,7 +3074,7 @@
         <v>10</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="AC13" s="8" t="s">
         <v>11</v>
@@ -2507,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="AC14" s="8" t="s">
         <v>11</v>
@@ -2562,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>11</v>
@@ -2617,13 +3239,13 @@
         <v>10</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -2672,47 +3294,72 @@
         <v>10</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="AC17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="52" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M20" s="55"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="1:29" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2768,60 +3415,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>1</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="65" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="39">
+      <c r="I22" s="10">
+        <v>88.86</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="L22" s="10">
+        <v>-3.2909999999999999</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.8135</v>
+      </c>
+      <c r="N22" s="49">
         <v>1</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="O22" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>9</v>
+      </c>
       <c r="R22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB22" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="51">
         <v>2</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12">
+        <v>0.91839999999999999</v>
+      </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
@@ -2834,15 +3499,25 @@
       <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="39">
+      <c r="I23" s="52">
+        <v>88.87</v>
+      </c>
+      <c r="J23" s="52">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="K23" s="52">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="L23" s="52">
+        <v>-2.7029999999999998</v>
+      </c>
+      <c r="M23" s="52">
+        <v>0.8165</v>
+      </c>
+      <c r="N23" s="51">
         <v>2</v>
       </c>
       <c r="O23" s="38"/>
@@ -2852,23 +3527,25 @@
         <v>10</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB23" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>3</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="28">
         <v>0</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="29">
+        <v>0.90490000000000004</v>
+      </c>
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
@@ -2878,35 +3555,45 @@
       <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="39">
+      <c r="I24" s="28">
+        <v>88.87</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0.4083</v>
+      </c>
+      <c r="K24" s="28">
+        <v>0.2472</v>
+      </c>
+      <c r="L24" s="28">
+        <v>-2.63</v>
+      </c>
+      <c r="M24" s="28">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="N24" s="28">
         <v>3</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB24" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="51">
         <v>4</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2918,40 +3605,58 @@
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="10" t="s">
+      <c r="F25" s="6">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="G25" s="52">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="39">
+      <c r="I25" s="52">
+        <v>89.73</v>
+      </c>
+      <c r="J25" s="52">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="K25" s="52">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L25" s="52">
+        <v>-0.1255</v>
+      </c>
+      <c r="M25" s="52">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="N25" s="28">
         <v>4</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
       <c r="R25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB25" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="51">
         <v>5</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="52">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.92989999999999995</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
@@ -2961,248 +3666,838 @@
       <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="39">
+      <c r="I26" s="52">
+        <v>88.87</v>
+      </c>
+      <c r="J26" s="52">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="K26" s="52">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="L26" s="52">
+        <v>-2.2469999999999999</v>
+      </c>
+      <c r="M26" s="52">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="N26" s="28">
         <v>5</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
       <c r="R26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB26" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="51">
         <v>6</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="52">
+        <v>0.68810000000000004</v>
+      </c>
       <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="6">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="39">
+      <c r="I27" s="52">
+        <v>89.78</v>
+      </c>
+      <c r="J27" s="52">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="K27" s="52">
+        <v>0.2266</v>
+      </c>
+      <c r="L27" s="52">
+        <v>-2.2549999999999999</v>
+      </c>
+      <c r="M27" s="52">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="N27" s="28">
         <v>6</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
       <c r="R27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="51">
         <v>7</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>0</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <v>0.51729999999999998</v>
+      </c>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="6">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="39">
+      <c r="I28" s="52">
+        <v>89.85</v>
+      </c>
+      <c r="J28" s="52">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="K28" s="52">
+        <v>0.247</v>
+      </c>
+      <c r="L28" s="52">
+        <v>-1.3480000000000001</v>
+      </c>
+      <c r="M28" s="52">
+        <v>0.878</v>
+      </c>
+      <c r="N28" s="28">
         <v>7</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
       <c r="R28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD28" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="51">
         <v>8</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="52">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="6">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="39">
+      <c r="I29" s="52">
+        <v>89.86</v>
+      </c>
+      <c r="J29" s="52">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="K29" s="52">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="L29" s="52">
+        <v>-2.0179999999999998</v>
+      </c>
+      <c r="M29" s="52">
+        <v>0.876</v>
+      </c>
+      <c r="N29" s="28">
         <v>8</v>
       </c>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
       <c r="R29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB29" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="51">
         <v>9</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="10" t="s">
+      <c r="C30" s="52">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.1091</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="39">
+      <c r="I30" s="52">
+        <v>90.06</v>
+      </c>
+      <c r="J30" s="52">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="K30" s="52">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="L30" s="52">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M30" s="52">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="N30" s="28">
         <v>9</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
       <c r="R30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="55"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="39">
+        <v>1</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="39">
+        <v>2</v>
+      </c>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>3</v>
+      </c>
+      <c r="B37" s="37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="39">
+        <v>3</v>
+      </c>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="36">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="39">
+        <v>4</v>
+      </c>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="R38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="39">
+        <v>5</v>
+      </c>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="R39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>6</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="39">
+        <v>6</v>
+      </c>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="R40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="36">
+        <v>7</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="39">
+        <v>7</v>
+      </c>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="R41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
+        <v>8</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="39">
+        <v>8</v>
+      </c>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="R42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD42" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>9</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="39">
+        <v>9</v>
+      </c>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="R43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AD30" s="8" t="s">
+      <c r="AD43" s="8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
-  <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="57" operator="between">
+  <conditionalFormatting sqref="M32 L68:L1048576">
+    <cfRule type="cellIs" dxfId="30" priority="69" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="70" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="71" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="15" priority="43" operator="lessThan">
+  <conditionalFormatting sqref="L32 K44:K1048576">
+    <cfRule type="cellIs" dxfId="27" priority="55" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J43">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M43">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="40" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L43">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36 D37 C39:C40 D39 C42:C43 D41:D43 E43 F38:G38 F40:G43">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M17">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J30">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M30">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="between">
-      <formula>0.5</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30">
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="lessThan">
-      <formula>-25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="greaterThan">
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:M17">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
@@ -3214,7 +4509,7 @@
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L17">
+  <conditionalFormatting sqref="L22:L30">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
@@ -3222,7 +4517,7 @@
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
@@ -3234,6 +4529,2479 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0824BDA1-0C4A-4CAA-94EA-5AAD1DEBBA4E}">
+  <sheetPr>
+    <tabColor rgb="FFFFE07D"/>
+  </sheetPr>
+  <dimension ref="A1:A528"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="43"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="43"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="43"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="43"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="43"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="43"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="43"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="43"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="43"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="43"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="43"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="43"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="43"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="43"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="43"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="43"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="43"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="43"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="43"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="43"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="43"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="43"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="43"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="43"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="43"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="43"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="43"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="43"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="43"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="43"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="43"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="43"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="43"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="43"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="43"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="43"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="43"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="43"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="43"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="43"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="43"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="43"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="43"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="43"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="43"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="43"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="43"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="43"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="43"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="43"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="43"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="43"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="43"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="43"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="43"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="43"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="43"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="43"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="43"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="43"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="43"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="43"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="44" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="44" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="43"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="43"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="43"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="43"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="43"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="46" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="43"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="46" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="43"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="43"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="43"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="47"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="47"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="48"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
   <sheetPr>
     <tabColor rgb="FFFFE07D"/>
@@ -3248,7 +7016,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3258,7 +7026,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -3268,12 +7036,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -3281,12 +7049,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3294,27 +7062,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3322,12 +7090,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3335,7 +7103,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -3343,22 +7111,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3366,47 +7134,47 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -3417,37 +7185,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -3460,22 +7228,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -3483,7 +7251,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -3493,7 +7261,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3503,12 +7271,12 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -3516,12 +7284,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -3529,27 +7297,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -3557,12 +7325,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -3570,7 +7338,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3578,27 +7346,27 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="46" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -3606,47 +7374,47 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="46" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -3654,22 +7422,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="46" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3677,37 +7445,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3720,22 +7488,22 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="46" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="46" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -3743,7 +7511,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -3753,7 +7521,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -3763,12 +7531,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -3776,12 +7544,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -3789,27 +7557,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -3817,12 +7585,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -3830,7 +7598,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="46" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -3838,27 +7606,27 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="46" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="46" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -3866,47 +7634,47 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="46" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="46" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3914,22 +7682,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="46" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="46" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -3937,37 +7705,37 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="46" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -3980,22 +7748,22 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="46" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="46" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="46" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -4003,7 +7771,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -4013,7 +7781,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -4023,12 +7791,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -4036,12 +7804,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -4049,27 +7817,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -4077,12 +7845,12 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -4090,7 +7858,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="46" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -4098,32 +7866,32 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="46" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="46" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="46" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -4131,47 +7899,47 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="46" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="46" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="46" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="46" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="46" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4179,27 +7947,27 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="46" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="46" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="46" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4207,37 +7975,37 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="46" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -4250,22 +8018,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="46" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="46" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4273,7 +8041,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -4283,7 +8051,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -4293,12 +8061,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -4306,12 +8074,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -4319,27 +8087,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -4347,12 +8115,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -4360,7 +8128,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="46" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -4368,32 +8136,32 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="46" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="46" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="46" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="46" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -4401,47 +8169,47 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="46" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="46" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="46" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="46" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="46" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -4449,27 +8217,27 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="46" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="46" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -4477,37 +8245,37 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -4520,22 +8288,22 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="46" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="46" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -4543,7 +8311,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="44" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -4553,7 +8321,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="45" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -4563,12 +8331,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="44" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -4576,12 +8344,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -4589,27 +8357,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -4617,12 +8385,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -4630,7 +8398,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="46" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -4638,37 +8406,37 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="46" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="46" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="46" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="46" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="46" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -4676,47 +8444,47 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="46" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="46" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="46" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="46" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="46" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="46" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -4724,32 +8492,32 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="46" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="46" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="46" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="46" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -4757,37 +8525,37 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -4800,22 +8568,22 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="46" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -4823,7 +8591,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="44" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -4833,7 +8601,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="45" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -4843,12 +8611,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="44" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -4856,12 +8624,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -4869,27 +8637,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -4897,12 +8665,12 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -4910,7 +8678,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="46" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -4918,37 +8686,37 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="46" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="46" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="46" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="46" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="46" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -4956,47 +8724,47 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="46" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="46" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="46" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="46" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="46" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="46" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -5004,32 +8772,32 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="46" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="46" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="46" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="46" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -5037,37 +8805,37 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="46" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -5080,22 +8848,22 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="46" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="46" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="46" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -5103,7 +8871,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="44" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -5113,7 +8881,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="45" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -5123,12 +8891,12 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="44" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -5136,12 +8904,12 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -5149,27 +8917,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -5177,12 +8945,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -5190,7 +8958,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="46" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -5198,42 +8966,42 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="46" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="46" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="46" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="46" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="46" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="46" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="46" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -5241,47 +9009,47 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="46" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="46" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="46" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="46" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -5289,37 +9057,37 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="46" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="46" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="46" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="46" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="46" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -5327,37 +9095,37 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -5370,22 +9138,22 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="46" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="46" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="46" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -5393,7 +9161,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="44" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -5403,7 +9171,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="45" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -5413,12 +9181,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="44" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -5426,12 +9194,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -5439,27 +9207,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -5467,12 +9235,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -5480,7 +9248,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="46" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -5488,47 +9256,47 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="46" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="46" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="46" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="46" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="46" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="46" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="46" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="46" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -5536,47 +9304,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="46" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="46" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="46" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="46" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="46" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="46" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -5584,42 +9352,42 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="46" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="46" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="46" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="46" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="46" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="46" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="46" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -5627,37 +9395,37 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="46" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -5670,22 +9438,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="46" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="46" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="46" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -5706,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110874D-1AB5-4D4C-BDF4-3EDF5D1201E0}">
   <dimension ref="A1:A524"/>
   <sheetViews>
